--- a/hr_data_2.xlsx
+++ b/hr_data_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuiwatanabe/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuiwatanabe/Desktop/R/first_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B770EC7C-A79B-C342-8618-CEC0A5F01332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B9F8C5-3893-0848-B83B-0C9AB3F7C30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14760" yWindow="500" windowWidth="13660" windowHeight="16420" xr2:uid="{4D3AB201-5FD0-F84C-9A6F-ACCBAB8B750A}"/>
+    <workbookView xWindow="14760" yWindow="500" windowWidth="13660" windowHeight="16380" xr2:uid="{4D3AB201-5FD0-F84C-9A6F-ACCBAB8B750A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
   <si>
     <t>year</t>
   </si>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6D5CAD-D95E-D246-8AB1-33B19794F13E}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,7 +524,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>17</v>
@@ -552,7 +552,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>21</v>
@@ -569,6 +569,90 @@
         <v>6</v>
       </c>
       <c r="D11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2016</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2017</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2016</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2017</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2016</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2017</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
         <v>9</v>
       </c>
     </row>

--- a/hr_data_2.xlsx
+++ b/hr_data_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuiwatanabe/Desktop/R/first_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B9F8C5-3893-0848-B83B-0C9AB3F7C30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41118995-DFE5-7C43-A051-1C546C050F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14760" yWindow="500" windowWidth="13660" windowHeight="16380" xr2:uid="{4D3AB201-5FD0-F84C-9A6F-ACCBAB8B750A}"/>
   </bookViews>
@@ -409,7 +409,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
